--- a/Data Analysis/rxn_data.xlsx
+++ b/Data Analysis/rxn_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mathworks.sharepoint.com/sites/LATAMTeam/Shared Documents/2025/000_Events &amp; Visits 2025/05_PERU TRIP/05_UNSAAC/Reaction kinetics/Sharing_w_Aycan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mathworks-my.sharepoint.com/personal/garellan_mathworks_com/Documents/Desktop/Demos/0000 - Gaby's repos/Seminario_IngQuimica/Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="15" documentId="8_{99693801-1D38-4A83-9500-5380BFE3689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AA50ABD-02F6-442F-A88D-88BD78FD559E}"/>
   <bookViews>
-    <workbookView xWindow="29925" yWindow="1125" windowWidth="7410" windowHeight="12735" xr2:uid="{6360B3BB-40CA-4133-9031-05587AD887E4}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{6360B3BB-40CA-4133-9031-05587AD887E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23326374-D941-4C45-B8A0-38933AC7072D}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,26 +972,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="8de1b64e-f53a-4ca5-80bf-49ce49782891" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="571a3c9a-3356-4135-99d8-f9d386b36abe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010044146368FC6D404193F4B3718EE3AF18" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2a98550fcd97f432d1122ca2e118fd6d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="571a3c9a-3356-4135-99d8-f9d386b36abe" xmlns:ns3="8de1b64e-f53a-4ca5-80bf-49ce49782891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6e26cd005802656fdd4354c23541560b" ns2:_="" ns3:_="">
     <xsd:import namespace="571a3c9a-3356-4135-99d8-f9d386b36abe"/>
@@ -1246,26 +1226,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B39BCB0-18FE-4E2D-9391-E4134022B967}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8de1b64e-f53a-4ca5-80bf-49ce49782891"/>
-    <ds:schemaRef ds:uri="571a3c9a-3356-4135-99d8-f9d386b36abe"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0A17DD2-8C69-44C9-BAA2-3E6BB0517C1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="8de1b64e-f53a-4ca5-80bf-49ce49782891" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="571a3c9a-3356-4135-99d8-f9d386b36abe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18F11D65-C303-47F1-A679-35A14DE7EEE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1282,4 +1263,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0A17DD2-8C69-44C9-BAA2-3E6BB0517C1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B39BCB0-18FE-4E2D-9391-E4134022B967}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8de1b64e-f53a-4ca5-80bf-49ce49782891"/>
+    <ds:schemaRef ds:uri="571a3c9a-3356-4135-99d8-f9d386b36abe"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>